--- a/PreventableDeaths.xlsx
+++ b/PreventableDeaths.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
-    <t>Preventable COVID-19 Deaths, with available vaccination, July 2021 to Oct 2022</t>
+    <t>Preventable COVID-19 Deaths, with available vaccination, July 2021 to Sept 2022</t>
   </si>
   <si>
     <t>Date</t>
@@ -49,7 +49,7 @@
     <t>7/15/21 total deaths</t>
   </si>
   <si>
-    <t>10/2/22 total deaths</t>
+    <t>9/25/22 total deaths</t>
   </si>
   <si>
     <t>Deaths this period</t>
@@ -1910,7 +1910,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="23">
-        <v>1054195</v>
+        <v>1051501</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B18" s="21">
         <f>B17-B16</f>
-        <v>446361</v>
+        <v>443667</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B20" s="27">
         <f>B18-B19</f>
-        <v>302813.510743322</v>
+        <v>300119.510743322</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B21" s="29">
         <f>B20/B18</f>
-        <v>0.678404947437885</v>
+        <v>0.676452183153856</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="20"/>

--- a/PreventableDeaths.xlsx
+++ b/PreventableDeaths.xlsx
@@ -5,15 +5,65 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="April 21 - July 21" sheetId="1" r:id="rId4"/>
+    <sheet name="July 21 - Sept 22" sheetId="2" r:id="rId5"/>
+    <sheet name="April 21 - Sept 22" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
-  <si>
-    <t>Preventable COVID-19 Deaths, with available vaccination, July 2021 to Sept 2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+  <si>
+    <t>Preventable COVID-19 Deaths, with available vaccination, 4/15/21 to 7/15/21</t>
+  </si>
+  <si>
+    <t>Deaths at start of period, actual</t>
+  </si>
+  <si>
+    <t>Deaths at end of period, actual</t>
+  </si>
+  <si>
+    <t>Deaths this period</t>
+  </si>
+  <si>
+    <t>Vaccinated at start</t>
+  </si>
+  <si>
+    <t>US adult population</t>
+  </si>
+  <si>
+    <t>Missed vax this period</t>
+  </si>
+  <si>
+    <t>Average missed vax over period</t>
+  </si>
+  <si>
+    <t>Unvaxed mortality this period, per week, per 100k</t>
+  </si>
+  <si>
+    <t>Vaxed mortality this period, per week, per 100k</t>
+  </si>
+  <si>
+    <t>Predicted deaths, missed people, unvaxed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted deaths, missed people, vaxed </t>
+  </si>
+  <si>
+    <t>Preventable deaths this period, estimated</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Vaxed and unvaxed mortality are an average of 3 data points for start/middle/end of period</t>
+  </si>
+  <si>
+    <t>Vaccinated = completed primary series (usually 2 shots)</t>
+  </si>
+  <si>
+    <t>Preventable COVID-19 Deaths, with available vaccination, 7/15/21 to 9/25/22</t>
   </si>
   <si>
     <t>Date</t>
@@ -43,25 +93,7 @@
     <t>US pop total</t>
   </si>
   <si>
-    <t>7/15/21 - Now</t>
-  </si>
-  <si>
-    <t>7/15/21 total deaths</t>
-  </si>
-  <si>
-    <t>9/25/22 total deaths</t>
-  </si>
-  <si>
-    <t>Deaths this period</t>
-  </si>
-  <si>
-    <t>Vaxed deaths predicted by weighted rate</t>
-  </si>
-  <si>
-    <t>Preventable deaths, estimated</t>
-  </si>
-  <si>
-    <t>Preventable deaths, portion of all deaths</t>
+    <t>Vaxed deaths this period predicted by weighted rate</t>
   </si>
   <si>
     <t>Data Sources</t>
@@ -95,13 +127,56 @@
     </r>
   </si>
   <si>
+    <t>Vaccination pace</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://covid.cdc.gov/covid-data-tracker/#vaccination-trends</t>
+    </r>
+  </si>
+  <si>
+    <t>Vaccine demographics</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://covid.cdc.gov/covid-data-tracker/#vaccination-demographics-trends</t>
+    </r>
+  </si>
+  <si>
     <t>Population</t>
   </si>
   <si>
     <t>Various Internet sources</t>
   </si>
   <si>
-    <t>Notes</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Black numbers are entered. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Blue numbers are calculated.</t>
+    </r>
   </si>
   <si>
     <t>Vaccinated = primary series + 1 or more boosters as recommended.</t>
@@ -113,25 +188,35 @@
     <t>Vaxed death rates are out of people who are vaccinated.</t>
   </si>
   <si>
-    <t>Deaths between 4/15/21 and 7/15/21 are not counted, even though many of those people could have been vaccinated.</t>
-  </si>
-  <si>
-    <t>Unvaxed deaths for 11/21 to present used a population base of 5+ years old.</t>
-  </si>
-  <si>
-    <t>Unvaxed deaths for 7/21 and 9/21 used a population base of 6+ months. This does not affect any key calculations here.</t>
+    <t>Unvaxed deaths for 11/21 to present use a population base of 5+ years old.</t>
+  </si>
+  <si>
+    <t>Unvaxed deaths for 7/21 and 9/21 use a population base of 6+ months. This does not affect any key calculations here.</t>
+  </si>
+  <si>
+    <t>Preventable COVID-19 Deaths, with available vaccination, 4/15/21 to 9/25/22</t>
+  </si>
+  <si>
+    <t>Preventable deaths 4/15/21 to 7/15/21, estimated</t>
+  </si>
+  <si>
+    <t>Preventable deaths 7/15/21 to 9/25/22, estimated</t>
+  </si>
+  <si>
+    <t>Preventable deaths fraction of actual deaths, estimated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="60" formatCode="0.000"/>
+    <numFmt numFmtId="61" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -149,19 +234,14 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="15"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="15"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -172,9 +252,19 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color indexed="14"/>
+      <color indexed="16"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times Roman"/>
     </font>
     <font>
       <u val="single"/>
@@ -203,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -297,7 +387,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -321,13 +411,43 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -339,25 +459,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -366,43 +471,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,7 +504,82 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -427,7 +592,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -437,110 +602,164 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,6 +782,8 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffa5cfe6"/>
+      <rgbColor rgb="ff3f98cb"/>
       <rgbColor rgb="ff0075b9"/>
       <rgbColor rgb="ff202528"/>
       <rgbColor rgb="fff8b1a9"/>
@@ -1624,6 +1845,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="42.6875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6406" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>567000</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>607000</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <f>B4-B3</f>
+        <v>40000</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>91000000</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15">
+        <v>167000000</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15">
+        <v>260000000</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="17">
+        <f>B10-B8</f>
+        <v>93000000</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="17">
+        <f>B11/2</f>
+        <v>46500000</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="18">
+        <v>3.86</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
+        <f>B12/100000*12*B14</f>
+        <v>21538.8</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="17">
+        <f>B12/100000*12*B15</f>
+        <v>1339.2</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="19">
+        <f>B17-B18</f>
+        <v>20199.6</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s" s="21">
+        <v>14</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A2:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
@@ -1632,17 +2111,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.6875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.2656" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6719" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7656" style="22" customWidth="1"/>
+    <col min="2" max="2" width="22.2656" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.1719" style="22" customWidth="1"/>
+    <col min="4" max="4" width="18.6719" style="22" customWidth="1"/>
+    <col min="5" max="6" width="16.3516" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1651,743 +2130,746 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" ht="44.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A2" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="24">
         <v>44395</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="25">
         <v>7.21</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="26">
         <v>0.49</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="26">
         <v>276</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="27">
         <f>D3/D10</f>
         <v>0.0400696864111498</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="27">
         <f>C3*E3</f>
         <v>0.0196341463414634</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="28">
         <v>44451</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="29">
         <v>14.97</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="30">
         <v>0.99</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="30">
         <v>1716</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="31">
         <f>D4/D10</f>
         <v>0.249128919860627</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="31">
         <f>C4*E4</f>
         <v>0.246637630662021</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="28">
         <v>44514</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="29">
         <v>12.73</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="30">
         <v>0.24</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="30">
         <v>1028</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="31">
         <f>D5/D10</f>
         <v>0.14924506387921</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="31">
         <f>C5*E5</f>
         <v>0.0358188153310104</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="28">
         <v>44577</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="29">
         <v>18.07</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="30">
         <v>1.36</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="30">
         <v>1934</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="31">
         <f>D6/D10</f>
         <v>0.280778164924506</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="31">
         <f>C6*E6</f>
         <v>0.381858304297328</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="28">
         <v>44633</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="29">
         <v>1.06</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="30">
         <v>0.11</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="30">
         <v>1234</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="31">
         <f>D7/D10</f>
         <v>0.179152148664344</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="31">
         <f>C7*E7</f>
         <v>0.0197067363530778</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="28">
         <v>44696</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="29">
         <v>1.24</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="30">
         <v>0.29</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="30">
         <v>288</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="31">
         <f>D8/D10</f>
         <v>0.0418118466898955</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="31">
         <f>C8*E8</f>
         <v>0.0121254355400697</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="28">
         <v>44759</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="29">
         <v>2.68</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="30">
         <v>0.4</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="30">
         <v>412</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="31">
         <f>D9/D10</f>
         <v>0.0598141695702671</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="31">
         <f>C9*E9</f>
         <v>0.0239256678281068</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13">
+      <c r="A10" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
         <v>6888</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="35">
         <f>SUM(E3:E9)</f>
         <v>0.999999999999999</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="36">
         <f>SUM(F3:F9)</f>
         <v>0.739706736353077</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="B12" s="21">
+      <c r="A12" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15">
         <v>313000000</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="B13" s="21">
+      <c r="A13" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15">
         <v>332000000</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="22">
-        <v>10</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="22.35" customHeight="1">
+      <c r="A15" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="37">
+        <v>607834</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="B16" s="23">
-        <v>607834</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="20"/>
+      <c r="A16" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37">
+        <v>1051501</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="B17" s="23">
-        <v>1051501</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="B18" s="21">
-        <f>B17-B16</f>
+      <c r="A17" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="17">
+        <f>B16-B15</f>
         <v>443667</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="B19" s="25">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="32.05" customHeight="1">
+      <c r="A18" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B18" s="17">
         <f>B12/100000*(52+10)*F10</f>
         <v>143547.489256678</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="26">
-        <v>15</v>
-      </c>
-      <c r="B20" s="27">
-        <f>B18-B19</f>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" ht="32.05" customHeight="1">
+      <c r="A19" t="s" s="39">
+        <v>12</v>
+      </c>
+      <c r="B19" s="40">
+        <f>B17-B18</f>
         <v>300119.510743322</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" ht="32.05" customHeight="1">
-      <c r="A21" t="s" s="28">
-        <v>16</v>
-      </c>
-      <c r="B21" s="29">
-        <f>B20/B18</f>
-        <v>0.676452183153856</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="44">
+        <v>27</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="A22" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s" s="21">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="22">
-        <v>17</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="A23" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s" s="21">
+        <v>31</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s" s="34">
-        <v>19</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="A24" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s" s="34">
-        <v>21</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="A25" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s" s="21">
+        <v>35</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s" s="35">
-        <v>23</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="A26" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s" s="46">
+        <v>37</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="22">
-        <v>24</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="A28" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" t="s" s="34">
-        <v>25</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="A29" s="13"/>
+      <c r="B29" t="s" s="21">
+        <v>38</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" t="s" s="34">
-        <v>26</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="A30" s="13"/>
+      <c r="B30" t="s" s="21">
+        <v>39</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" t="s" s="34">
-        <v>27</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="A31" s="13"/>
+      <c r="B31" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" t="s" s="34">
-        <v>28</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="A32" s="13"/>
+      <c r="B32" t="s" s="21">
+        <v>41</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" t="s" s="34">
-        <v>29</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="A33" s="13"/>
+      <c r="B33" t="s" s="21">
+        <v>42</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" t="s" s="34">
-        <v>30</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="A34" s="13"/>
+      <c r="B34" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#trends_dailydeaths_select_00"/>
-    <hyperlink ref="B25" r:id="rId2" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#rates-by-vaccine-status"/>
+    <hyperlink ref="B22" r:id="rId1" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#trends_dailydeaths_select_00"/>
+    <hyperlink ref="B23" r:id="rId2" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#rates-by-vaccine-status"/>
+    <hyperlink ref="B24" r:id="rId3" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-trends"/>
+    <hyperlink ref="B25" r:id="rId4" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-demographics-trends"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2395,4 +2877,153 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="30.7344" style="49" customWidth="1"/>
+    <col min="2" max="5" width="16.3516" style="49" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>567000</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37">
+        <v>1051501</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="39">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50">
+        <f>B4-B3</f>
+        <v>484501</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="41"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="32.05" customHeight="1">
+      <c r="A7" t="s" s="52">
+        <v>45</v>
+      </c>
+      <c r="B7" s="51">
+        <f>'April 21 - July 21'!B19</f>
+        <v>20199.6</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" ht="32.05" customHeight="1">
+      <c r="A8" t="s" s="52">
+        <v>46</v>
+      </c>
+      <c r="B8" s="51">
+        <f>'July 21 - Sept 22'!B19</f>
+        <v>300119.510743322</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" ht="32.05" customHeight="1">
+      <c r="A9" t="s" s="53">
+        <v>12</v>
+      </c>
+      <c r="B9" s="54">
+        <f>B7+B8</f>
+        <v>320319.110743322</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="B11" s="55">
+        <f>B9/B5</f>
+        <v>0.66113199094186</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/PreventableDeaths.xlsx
+++ b/PreventableDeaths.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Preventable COVID-19 Deaths, with available vaccination, 4/15/21 to 7/15/21</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Vaccinated at start</t>
+  </si>
+  <si>
+    <t>Vaccinated at end</t>
   </si>
   <si>
     <t>US adult population</t>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="15">
         <v>167000000</v>
@@ -1950,7 +1953,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="15">
         <v>260000000</v>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="17">
         <f>B10-B8</f>
@@ -1973,7 +1976,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="17">
         <f>B11/2</f>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18">
         <v>3.86</v>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="18">
         <v>0.24</v>
@@ -2021,7 +2024,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="17">
         <f>B12/100000*12*B14</f>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="17">
         <f>B12/100000*12*B15</f>
@@ -2045,7 +2048,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="19">
         <f>B17-B18</f>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="9"/>
@@ -2074,7 +2077,7 @@
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" t="s" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2083,7 +2086,7 @@
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" t="s" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2121,7 +2124,7 @@
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2131,22 +2134,22 @@
     </row>
     <row r="2" ht="44.25" customHeight="1">
       <c r="A2" t="s" s="23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s" s="23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s" s="23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s" s="23">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
@@ -2305,7 +2308,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -2332,7 +2335,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="15">
         <v>313000000</v>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="15">
         <v>332000000</v>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="18" ht="32.05" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="17">
         <f>B12/100000*(52+10)*F10</f>
@@ -2414,7 +2417,7 @@
     </row>
     <row r="19" ht="32.05" customHeight="1">
       <c r="A19" t="s" s="39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="40">
         <f>B17-B18</f>
@@ -2435,7 +2438,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="44">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="9"/>
@@ -2445,10 +2448,10 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s" s="21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2457,10 +2460,10 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s" s="21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2469,10 +2472,10 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2481,10 +2484,10 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s" s="21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2493,10 +2496,10 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="46">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9"/>
@@ -2524,7 +2527,7 @@
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" t="s" s="21">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2534,7 +2537,7 @@
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" t="s" s="21">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2544,7 +2547,7 @@
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" t="s" s="21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2554,7 +2557,7 @@
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" t="s" s="21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2564,7 +2567,7 @@
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" t="s" s="21">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2574,7 +2577,7 @@
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" t="s" s="21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2899,7 +2902,7 @@
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2956,7 +2959,7 @@
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="52">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="51">
         <f>'April 21 - July 21'!B19</f>
@@ -2968,7 +2971,7 @@
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="52">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="51">
         <f>'July 21 - Sept 22'!B19</f>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="54">
         <f>B7+B8</f>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="55">
         <f>B9/B5</f>

--- a/PreventableDeaths.xlsx
+++ b/PreventableDeaths.xlsx
@@ -6,8 +6,8 @@
   </bookViews>
   <sheets>
     <sheet name="April 21 - July 21" sheetId="1" r:id="rId4"/>
-    <sheet name="July 21 - Sept 22" sheetId="2" r:id="rId5"/>
-    <sheet name="April 21 - Sept 22" sheetId="3" r:id="rId6"/>
+    <sheet name="July 21 - Dec 22" sheetId="2" r:id="rId5"/>
+    <sheet name="April 21 - Dec 22" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -66,7 +66,7 @@
     <t>Vaccinated = completed primary series (usually 2 shots)</t>
   </si>
   <si>
-    <t>Preventable COVID-19 Deaths, with available vaccination, 7/15/21 to 9/25/22</t>
+    <t>Preventable COVID-19 Deaths, with available vaccination, 7/15/21 to 12/14/22</t>
   </si>
   <si>
     <t>Date</t>
@@ -182,7 +182,7 @@
     </r>
   </si>
   <si>
-    <t>Vaccinated = primary series + 1 or more boosters as recommended.</t>
+    <t>Vaccinated = primary series + all boosters recommended.</t>
   </si>
   <si>
     <t>Unvaxed death rates are out of the total unvaccinated population.</t>
@@ -197,13 +197,13 @@
     <t>Unvaxed deaths for 7/21 and 9/21 use a population base of 6+ months. This does not affect any key calculations here.</t>
   </si>
   <si>
-    <t>Preventable COVID-19 Deaths, with available vaccination, 4/15/21 to 9/25/22</t>
+    <t>Preventable COVID-19 Deaths, with available vaccination, 4/15/21 to 12/14/22</t>
   </si>
   <si>
     <t>Preventable deaths 4/15/21 to 7/15/21, estimated</t>
   </si>
   <si>
-    <t>Preventable deaths 7/15/21 to 9/25/22, estimated</t>
+    <t>Preventable deaths 7/15/21 to 12/14/22, estimated</t>
   </si>
   <si>
     <t>Preventable deaths fraction of actual deaths, estimated</t>
@@ -2106,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:F69"/>
+  <dimension ref="A2:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2166,12 +2166,12 @@
         <v>276</v>
       </c>
       <c r="E3" s="27">
-        <f>D3/D10</f>
-        <v>0.0400696864111498</v>
+        <f>D3/D11</f>
+        <v>0.0380584666298952</v>
       </c>
       <c r="F3" s="27">
         <f>C3*E3</f>
-        <v>0.0196341463414634</v>
+        <v>0.0186486486486486</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -2188,12 +2188,12 @@
         <v>1716</v>
       </c>
       <c r="E4" s="31">
-        <f>D4/D10</f>
-        <v>0.249128919860627</v>
+        <f>D4/D11</f>
+        <v>0.236624379481522</v>
       </c>
       <c r="F4" s="31">
         <f>C4*E4</f>
-        <v>0.246637630662021</v>
+        <v>0.234258135686707</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -2210,12 +2210,12 @@
         <v>1028</v>
       </c>
       <c r="E5" s="31">
-        <f>D5/D10</f>
-        <v>0.14924506387921</v>
+        <f>D5/D11</f>
+        <v>0.141753998896856</v>
       </c>
       <c r="F5" s="31">
         <f>C5*E5</f>
-        <v>0.0358188153310104</v>
+        <v>0.0340209597352454</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2232,12 +2232,12 @@
         <v>1934</v>
       </c>
       <c r="E6" s="31">
-        <f>D6/D10</f>
-        <v>0.280778164924506</v>
+        <f>D6/D11</f>
+        <v>0.266685052399338</v>
       </c>
       <c r="F6" s="31">
         <f>C6*E6</f>
-        <v>0.381858304297328</v>
+        <v>0.3626916712631</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2254,12 +2254,12 @@
         <v>1234</v>
       </c>
       <c r="E7" s="31">
-        <f>D7/D10</f>
-        <v>0.179152148664344</v>
+        <f>D7/D11</f>
+        <v>0.170159955874242</v>
       </c>
       <c r="F7" s="31">
         <f>C7*E7</f>
-        <v>0.0197067363530778</v>
+        <v>0.0187175951461666</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2276,12 +2276,12 @@
         <v>288</v>
       </c>
       <c r="E8" s="31">
-        <f>D8/D10</f>
-        <v>0.0418118466898955</v>
+        <f>D8/D11</f>
+        <v>0.0397131825703254</v>
       </c>
       <c r="F8" s="31">
         <f>C8*E8</f>
-        <v>0.0121254355400697</v>
+        <v>0.0115168229453944</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2298,48 +2298,58 @@
         <v>412</v>
       </c>
       <c r="E9" s="31">
-        <f>D9/D10</f>
-        <v>0.0598141695702671</v>
+        <f>D9/D11</f>
+        <v>0.0568119139547711</v>
       </c>
       <c r="F9" s="31">
         <f>C9*E9</f>
-        <v>0.0239256678281068</v>
+        <v>0.0227247655819084</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" s="28">
+        <v>44857</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1.17</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="30">
+        <v>364</v>
+      </c>
+      <c r="E10" s="31">
+        <f>D10/D11</f>
+        <v>0.0501930501930502</v>
+      </c>
+      <c r="F10" s="31">
+        <f>C10*E10</f>
+        <v>0.00200772200772201</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34">
-        <f>SUM(D3:D9)</f>
-        <v>6888</v>
-      </c>
-      <c r="E10" s="35">
-        <f>SUM(E3:E9)</f>
-        <v>0.999999999999999</v>
-      </c>
-      <c r="F10" s="36">
-        <f>SUM(F3:F9)</f>
-        <v>0.739706736353077</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34">
+        <f>SUM(D3:D10)</f>
+        <v>7252</v>
+      </c>
+      <c r="E11" s="35">
+        <f>SUM(E3:E10)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="36">
+        <f>SUM(F3:F10)</f>
+        <v>0.704586321014892</v>
+      </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B12" s="15">
-        <v>313000000</v>
-      </c>
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2347,10 +2357,10 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="15">
-        <v>332000000</v>
+        <v>313000000</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2358,31 +2368,31 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
+      <c r="A14" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B14" s="15">
+        <v>332000000</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="37">
-        <v>607834</v>
-      </c>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="38"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="37">
-        <v>1051501</v>
+        <v>607834</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2391,68 +2401,68 @@
     </row>
     <row r="17" ht="22.35" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B17" s="17">
-        <f>B16-B15</f>
-        <v>443667</v>
+        <v>2</v>
+      </c>
+      <c r="B17" s="37">
+        <v>1083279</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="38"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" ht="32.05" customHeight="1">
+    <row r="18" ht="22.35" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B18" s="17">
-        <f>B12/100000*(52+10)*F10</f>
-        <v>143547.489256678</v>
+        <f>B17-B16</f>
+        <v>475445</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="39">
-        <v>13</v>
-      </c>
-      <c r="B19" s="40">
-        <f>B17-B18</f>
-        <v>300119.510743322</v>
+      <c r="A19" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="B19" s="17">
+        <f>B13/100000*(52+10)*F11</f>
+        <v>136732.02145615</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+    <row r="20" ht="32.05" customHeight="1">
+      <c r="A20" t="s" s="39">
+        <v>13</v>
+      </c>
+      <c r="B20" s="40">
+        <f>B18-B19</f>
+        <v>338712.97854385</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="44">
-        <v>28</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s" s="21">
-        <v>30</v>
-      </c>
+      <c r="A22" t="s" s="44">
+        <v>28</v>
+      </c>
+      <c r="B22" s="45"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2460,10 +2470,10 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s" s="21">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2472,10 +2482,10 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s" s="21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2484,10 +2494,10 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s" s="21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2496,10 +2506,10 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s" s="46">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B26" t="s" s="21">
+        <v>36</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2507,17 +2517,19 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="16"/>
+      <c r="A27" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s" s="46">
+        <v>38</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="20">
-        <v>14</v>
-      </c>
+      <c r="A28" s="47"/>
       <c r="B28" s="16"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2525,10 +2537,10 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" t="s" s="21">
-        <v>39</v>
-      </c>
+      <c r="A29" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="B29" s="16"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2537,7 +2549,7 @@
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" t="s" s="21">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2547,7 +2559,7 @@
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" t="s" s="21">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2557,7 +2569,7 @@
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" t="s" s="21">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2567,7 +2579,7 @@
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" t="s" s="21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2577,7 +2589,7 @@
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" t="s" s="21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2586,7 +2598,9 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="16"/>
+      <c r="B35" t="s" s="21">
+        <v>44</v>
+      </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2594,7 +2608,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="13"/>
-      <c r="B36" s="48"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -2864,15 +2878,23 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
+    <row r="70" ht="20.05" customHeight="1">
+      <c r="A70" s="13"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#trends_dailydeaths_select_00"/>
-    <hyperlink ref="B23" r:id="rId2" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#rates-by-vaccine-status"/>
-    <hyperlink ref="B24" r:id="rId3" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-trends"/>
-    <hyperlink ref="B25" r:id="rId4" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-demographics-trends"/>
+    <hyperlink ref="B23" r:id="rId1" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#trends_dailydeaths_select_00"/>
+    <hyperlink ref="B24" r:id="rId2" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#rates-by-vaccine-status"/>
+    <hyperlink ref="B25" r:id="rId3" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-trends"/>
+    <hyperlink ref="B26" r:id="rId4" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-demographics-trends"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2932,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="37">
-        <v>1051501</v>
+        <v>1083279</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2944,7 +2966,7 @@
       </c>
       <c r="B5" s="50">
         <f>B4-B3</f>
-        <v>484501</v>
+        <v>516279</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2974,8 +2996,8 @@
         <v>47</v>
       </c>
       <c r="B8" s="51">
-        <f>'July 21 - Sept 22'!B19</f>
-        <v>300119.510743322</v>
+        <f>'July 21 - Dec 22'!B20</f>
+        <v>338712.97854385</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="9"/>
@@ -2987,7 +3009,7 @@
       </c>
       <c r="B9" s="54">
         <f>B7+B8</f>
-        <v>320319.110743322</v>
+        <v>358912.57854385</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3006,7 +3028,7 @@
       </c>
       <c r="B11" s="55">
         <f>B9/B5</f>
-        <v>0.66113199094186</v>
+        <v>0.695191124457609</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>

--- a/PreventableDeaths.xlsx
+++ b/PreventableDeaths.xlsx
@@ -6,14 +6,14 @@
   </bookViews>
   <sheets>
     <sheet name="April 21 - July 21" sheetId="1" r:id="rId4"/>
-    <sheet name="July 21 - Dec 22" sheetId="2" r:id="rId5"/>
-    <sheet name="April 21 - Dec 22" sheetId="3" r:id="rId6"/>
+    <sheet name="July 21 - Mar 23" sheetId="2" r:id="rId5"/>
+    <sheet name="April 21 - Mar 23" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Preventable COVID-19 Deaths, with available vaccination, 4/15/21 to 7/15/21</t>
   </si>
@@ -66,7 +66,7 @@
     <t>Vaccinated = completed primary series (usually 2 shots)</t>
   </si>
   <si>
-    <t>Preventable COVID-19 Deaths, with available vaccination, 7/15/21 to 12/14/22</t>
+    <t>Preventable COVID-19 Deaths, with available vaccination, 7/15/21 to 3/15/23</t>
   </si>
   <si>
     <t>Date</t>
@@ -78,13 +78,16 @@
     <t>Vaxed deaths, per week, per 100k</t>
   </si>
   <si>
-    <t>Daily deaths, 7 day average</t>
-  </si>
-  <si>
-    <t>Daily deaths weighting</t>
+    <t>Weekly deaths</t>
+  </si>
+  <si>
+    <t>Weekly deaths weighting</t>
   </si>
   <si>
     <t>Vaxed deaths, per week, per 100k, weighted</t>
+  </si>
+  <si>
+    <t>03/15/2023 (est)</t>
   </si>
   <si>
     <t>Totals</t>
@@ -197,13 +200,13 @@
     <t>Unvaxed deaths for 7/21 and 9/21 use a population base of 6+ months. This does not affect any key calculations here.</t>
   </si>
   <si>
-    <t>Preventable COVID-19 Deaths, with available vaccination, 4/15/21 to 12/14/22</t>
+    <t>Preventable COVID-19 Deaths, with available vaccination, 4/15/21 to 3/15/23</t>
   </si>
   <si>
     <t>Preventable deaths 4/15/21 to 7/15/21, estimated</t>
   </si>
   <si>
-    <t>Preventable deaths 7/15/21 to 12/14/22, estimated</t>
+    <t>Preventable deaths 7/15/21 to 3/15/23, estimated</t>
   </si>
   <si>
     <t>Preventable deaths fraction of actual deaths, estimated</t>
@@ -213,11 +216,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="60" formatCode="0.000"/>
-    <numFmt numFmtId="61" formatCode="0.0000"/>
+    <numFmt numFmtId="61" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="62" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -595,7 +599,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -692,6 +696,12 @@
     <xf numFmtId="60" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="61" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -761,7 +771,7 @@
     <xf numFmtId="3" fontId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="62" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1013,7 +1023,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1043,7 +1052,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1069,7 +1077,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1095,7 +1102,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1121,7 +1127,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1147,7 +1152,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1173,7 +1177,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1199,7 +1202,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1225,7 +1227,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1251,7 +1252,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1302,7 +1302,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1328,7 +1327,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1354,7 +1352,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1380,7 +1377,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1406,7 +1402,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1432,7 +1427,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1458,7 +1452,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1484,7 +1477,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1510,7 +1502,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1536,7 +1527,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1584,7 +1574,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1614,7 +1603,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1640,7 +1628,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1666,7 +1653,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1692,7 +1678,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1718,7 +1703,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1744,7 +1728,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1770,7 +1753,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1796,7 +1778,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1822,7 +1803,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2106,7 +2086,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:F70"/>
+  <dimension ref="A2:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2163,15 +2143,15 @@
         <v>0.49</v>
       </c>
       <c r="D3" s="26">
-        <v>276</v>
+        <v>1948</v>
       </c>
       <c r="E3" s="27">
-        <f>D3/D11</f>
-        <v>0.0380584666298952</v>
+        <f>D3/D15</f>
+        <v>0.0308379110006491</v>
       </c>
       <c r="F3" s="27">
         <f>C3*E3</f>
-        <v>0.0186486486486486</v>
+        <v>0.0151105763903181</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -2185,15 +2165,15 @@
         <v>0.99</v>
       </c>
       <c r="D4" s="30">
-        <v>1716</v>
+        <v>14085</v>
       </c>
       <c r="E4" s="31">
-        <f>D4/D11</f>
-        <v>0.236624379481522</v>
+        <f>D4/D15</f>
+        <v>0.222973293862496</v>
       </c>
       <c r="F4" s="31">
         <f>C4*E4</f>
-        <v>0.234258135686707</v>
+        <v>0.220743560923871</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -2207,15 +2187,15 @@
         <v>0.24</v>
       </c>
       <c r="D5" s="30">
-        <v>1028</v>
+        <v>7498</v>
       </c>
       <c r="E5" s="31">
-        <f>D5/D11</f>
-        <v>0.141753998896856</v>
+        <f>D5/D15</f>
+        <v>0.118697462362868</v>
       </c>
       <c r="F5" s="31">
         <f>C5*E5</f>
-        <v>0.0340209597352454</v>
+        <v>0.0284873909670883</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2229,15 +2209,15 @@
         <v>1.36</v>
       </c>
       <c r="D6" s="30">
-        <v>1934</v>
+        <v>13227</v>
       </c>
       <c r="E6" s="31">
-        <f>D6/D11</f>
-        <v>0.266685052399338</v>
+        <f>D6/D15</f>
+        <v>0.209390682138391</v>
       </c>
       <c r="F6" s="31">
         <f>C6*E6</f>
-        <v>0.3626916712631</v>
+        <v>0.284771327708212</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2251,15 +2231,15 @@
         <v>0.11</v>
       </c>
       <c r="D7" s="30">
-        <v>1234</v>
+        <v>7821</v>
       </c>
       <c r="E7" s="31">
-        <f>D7/D11</f>
-        <v>0.170159955874242</v>
+        <f>D7/D15</f>
+        <v>0.123810729946651</v>
       </c>
       <c r="F7" s="31">
         <f>C7*E7</f>
-        <v>0.0187175951461666</v>
+        <v>0.0136191802941316</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2273,15 +2253,15 @@
         <v>0.29</v>
       </c>
       <c r="D8" s="30">
-        <v>288</v>
+        <v>2122</v>
       </c>
       <c r="E8" s="31">
-        <f>D8/D11</f>
-        <v>0.0397131825703254</v>
+        <f>D8/D15</f>
+        <v>0.0335924266649781</v>
       </c>
       <c r="F8" s="31">
         <f>C8*E8</f>
-        <v>0.0115168229453944</v>
+        <v>0.009741803732843651</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2295,197 +2275,243 @@
         <v>0.4</v>
       </c>
       <c r="D9" s="30">
-        <v>412</v>
+        <v>2755</v>
       </c>
       <c r="E9" s="31">
-        <f>D9/D11</f>
-        <v>0.0568119139547711</v>
+        <f>D9/D15</f>
+        <v>0.0436131646852095</v>
       </c>
       <c r="F9" s="31">
         <f>C9*E9</f>
-        <v>0.0227247655819084</v>
+        <v>0.0174452658740838</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="28">
-        <v>44857</v>
+        <v>44829</v>
       </c>
       <c r="B10" s="29">
-        <v>1.17</v>
+        <v>2.47</v>
       </c>
       <c r="C10" s="30">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="D10" s="30">
-        <v>364</v>
+        <v>3158</v>
       </c>
       <c r="E10" s="31">
-        <f>D10/D11</f>
-        <v>0.0501930501930502</v>
+        <f>D10/D15</f>
+        <v>0.0499928762525923</v>
       </c>
       <c r="F10" s="31">
         <f>C10*E10</f>
-        <v>0.00200772200772201</v>
+        <v>0.009998575250518459</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="A11" s="28">
+        <v>44892</v>
+      </c>
+      <c r="B11" s="29">
+        <v>3.93</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0.39</v>
+      </c>
+      <c r="D11" s="30">
+        <v>2657</v>
+      </c>
+      <c r="E11" s="31">
+        <f>D11/D15</f>
+        <v>0.0420617708053001</v>
+      </c>
+      <c r="F11" s="31">
+        <f>C11*E11</f>
+        <v>0.016404090614067</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="28">
+        <v>44955</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1.99</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0.28</v>
+      </c>
+      <c r="D12" s="30">
+        <v>3766</v>
+      </c>
+      <c r="E12" s="31">
+        <f>D12/D15</f>
+        <v>0.0596178505279488</v>
+      </c>
+      <c r="F12" s="31">
+        <f>C12*E12</f>
+        <v>0.0166929981478257</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="32">
+        <v>44983</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1.07</v>
+      </c>
+      <c r="C13" s="30">
+        <v>0.19</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2317</v>
+      </c>
+      <c r="E13" s="31">
+        <f>D13/D15</f>
+        <v>0.036679383875002</v>
+      </c>
+      <c r="F13" s="31">
+        <f>C13*E13</f>
+        <v>0.00696908293625038</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="33">
         <v>24</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34">
-        <f>SUM(D3:D10)</f>
-        <v>7252</v>
-      </c>
-      <c r="E11" s="35">
-        <f>SUM(E3:E10)</f>
+      <c r="B14" s="29">
+        <v>1.07</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0.19</v>
+      </c>
+      <c r="D14" s="30">
+        <v>1815</v>
+      </c>
+      <c r="E14" s="31">
+        <f>D14/D15</f>
+        <v>0.0287324478779148</v>
+      </c>
+      <c r="F14" s="31">
+        <f>C14*E14</f>
+        <v>0.00545916509680381</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36">
+        <f>SUM(D3:D14)</f>
+        <v>63169</v>
+      </c>
+      <c r="E15" s="37">
+        <f>SUM(E3:E14)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="36">
-        <f>SUM(F3:F10)</f>
-        <v>0.704586321014892</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B13" s="15">
-        <v>313000000</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="B14" s="15">
-        <v>332000000</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="37">
-        <v>607834</v>
-      </c>
+      <c r="F15" s="38">
+        <f>SUM(F3:F14)</f>
+        <v>0.645443017936014</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="38"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" ht="22.35" customHeight="1">
+    <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>2</v>
-      </c>
-      <c r="B17" s="37">
-        <v>1083279</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="15">
+        <v>313000000</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="38"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" ht="22.35" customHeight="1">
+    <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B18" s="17">
-        <f>B17-B16</f>
-        <v>475445</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="15">
+        <v>332000000</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="B19" s="17">
-        <f>B13/100000*(52+10)*F11</f>
-        <v>136732.02145615</v>
-      </c>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="39">
-        <v>13</v>
-      </c>
-      <c r="B20" s="40">
-        <f>B18-B19</f>
-        <v>338712.97854385</v>
+    <row r="20" ht="22.35" customHeight="1">
+      <c r="A20" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="39">
+        <v>607834</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+    <row r="21" ht="22.35" customHeight="1">
+      <c r="A21" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1121500</v>
+      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="44">
-        <v>28</v>
-      </c>
-      <c r="B22" s="45"/>
+    <row r="22" ht="22.35" customHeight="1">
+      <c r="A22" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B22" s="17">
+        <f>B21-B20</f>
+        <v>513666</v>
+      </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
+    <row r="23" ht="32.05" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s" s="21">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B23" s="17">
+        <f>B17/100000*(52+35)*F15</f>
+        <v>175760.588214156</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s" s="21">
-        <v>32</v>
+    <row r="24" ht="32.05" customHeight="1">
+      <c r="A24" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="B24" s="42">
+        <f>B22-B23</f>
+        <v>337905.411785844</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2493,24 +2519,18 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s" s="21">
-        <v>34</v>
-      </c>
-      <c r="C25" s="9"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s" s="21">
-        <v>36</v>
-      </c>
+      <c r="A26" t="s" s="46">
+        <v>29</v>
+      </c>
+      <c r="B26" s="47"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -2518,10 +2538,10 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s" s="46">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s" s="21">
+        <v>31</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2529,27 +2549,35 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="16"/>
+      <c r="A28" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s" s="21">
+        <v>33</v>
+      </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="B29" s="16"/>
+      <c r="A29" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s" s="21">
+        <v>35</v>
+      </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="13"/>
+      <c r="A30" t="s" s="7">
+        <v>36</v>
+      </c>
       <c r="B30" t="s" s="21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2557,9 +2585,11 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" t="s" s="21">
-        <v>40</v>
+      <c r="A31" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s" s="48">
+        <v>39</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2567,20 +2597,18 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" t="s" s="21">
-        <v>41</v>
-      </c>
+      <c r="A32" s="49"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" t="s" s="21">
-        <v>42</v>
-      </c>
+      <c r="A33" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="B33" s="16"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -2589,7 +2617,7 @@
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" t="s" s="21">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2599,7 +2627,7 @@
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" t="s" s="21">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2608,7 +2636,9 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="13"/>
-      <c r="B36" s="16"/>
+      <c r="B36" t="s" s="21">
+        <v>42</v>
+      </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -2616,7 +2646,9 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="13"/>
-      <c r="B37" s="48"/>
+      <c r="B37" t="s" s="21">
+        <v>43</v>
+      </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2624,7 +2656,9 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="48"/>
+      <c r="B38" t="s" s="21">
+        <v>44</v>
+      </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2632,7 +2666,9 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="48"/>
+      <c r="B39" t="s" s="21">
+        <v>45</v>
+      </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2640,7 +2676,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="48"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2648,7 +2684,7 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="13"/>
-      <c r="B41" s="48"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2656,7 +2692,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="48"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -2664,7 +2700,7 @@
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="13"/>
-      <c r="B43" s="48"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -2672,7 +2708,7 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="48"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2680,7 +2716,7 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" s="13"/>
-      <c r="B45" s="48"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2688,7 +2724,7 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="13"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -2696,7 +2732,7 @@
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="13"/>
-      <c r="B47" s="48"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2704,7 +2740,7 @@
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="48"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -2712,7 +2748,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="48"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -2720,7 +2756,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="13"/>
-      <c r="B50" s="48"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -2728,7 +2764,7 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="13"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -2736,7 +2772,7 @@
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="48"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -2744,7 +2780,7 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="48"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -2752,7 +2788,7 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" s="13"/>
-      <c r="B54" s="48"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -2760,7 +2796,7 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="48"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -2768,7 +2804,7 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" s="13"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -2776,7 +2812,7 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" s="13"/>
-      <c r="B57" s="48"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -2784,7 +2820,7 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" s="13"/>
-      <c r="B58" s="48"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -2792,7 +2828,7 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" s="13"/>
-      <c r="B59" s="48"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -2800,7 +2836,7 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" s="13"/>
-      <c r="B60" s="48"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -2808,7 +2844,7 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" s="13"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -2816,7 +2852,7 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" s="13"/>
-      <c r="B62" s="48"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -2824,7 +2860,7 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="48"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -2832,7 +2868,7 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" s="13"/>
-      <c r="B64" s="48"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -2840,7 +2876,7 @@
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="48"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -2848,7 +2884,7 @@
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" s="13"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -2856,7 +2892,7 @@
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" s="13"/>
-      <c r="B67" s="48"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -2864,7 +2900,7 @@
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" s="13"/>
-      <c r="B68" s="48"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -2872,7 +2908,7 @@
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" s="13"/>
-      <c r="B69" s="48"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -2880,21 +2916,53 @@
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" s="13"/>
-      <c r="B70" s="48"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
+    </row>
+    <row r="71" ht="20.05" customHeight="1">
+      <c r="A71" s="13"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" ht="20.05" customHeight="1">
+      <c r="A72" s="13"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" ht="20.05" customHeight="1">
+      <c r="A73" s="13"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" ht="20.05" customHeight="1">
+      <c r="A74" s="13"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#trends_dailydeaths_select_00"/>
-    <hyperlink ref="B24" r:id="rId2" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#rates-by-vaccine-status"/>
-    <hyperlink ref="B25" r:id="rId3" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-trends"/>
-    <hyperlink ref="B26" r:id="rId4" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-demographics-trends"/>
+    <hyperlink ref="B27" r:id="rId1" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#trends_dailydeaths_select_00"/>
+    <hyperlink ref="B28" r:id="rId2" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#rates-by-vaccine-status"/>
+    <hyperlink ref="B29" r:id="rId3" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-trends"/>
+    <hyperlink ref="B30" r:id="rId4" location="" tooltip="" display="https://covid.cdc.gov/covid-data-tracker/#vaccination-demographics-trends"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2917,14 +2985,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.7344" style="49" customWidth="1"/>
-    <col min="2" max="5" width="16.3516" style="49" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="49" customWidth="1"/>
+    <col min="1" max="1" width="30.7344" style="51" customWidth="1"/>
+    <col min="2" max="5" width="16.3516" style="51" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2953,63 +3021,63 @@
       <c r="A4" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="37">
-        <v>1083279</v>
+      <c r="B4" s="39">
+        <v>1121500</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="39">
+      <c r="A5" t="s" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="52">
         <f>B4-B3</f>
-        <v>516279</v>
+        <v>554500</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="52">
-        <v>46</v>
-      </c>
-      <c r="B7" s="51">
+      <c r="A7" t="s" s="54">
+        <v>47</v>
+      </c>
+      <c r="B7" s="53">
         <f>'April 21 - July 21'!B19</f>
         <v>20199.6</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" t="s" s="52">
-        <v>47</v>
-      </c>
-      <c r="B8" s="51">
-        <f>'July 21 - Dec 22'!B20</f>
-        <v>338712.97854385</v>
-      </c>
-      <c r="C8" s="43"/>
+      <c r="A8" t="s" s="54">
+        <v>48</v>
+      </c>
+      <c r="B8" s="53">
+        <f>'July 21 - Mar 23'!B24</f>
+        <v>337905.411785844</v>
+      </c>
+      <c r="C8" s="45"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" t="s" s="53">
+      <c r="A9" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="56">
         <f>B7+B8</f>
-        <v>358912.57854385</v>
+        <v>358105.011785844</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3024,11 +3092,11 @@
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="B11" s="55">
+        <v>49</v>
+      </c>
+      <c r="B11" s="57">
         <f>B9/B5</f>
-        <v>0.695191124457609</v>
+        <v>0.645816071750846</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
